--- a/Lab3/Book1.xlsx
+++ b/Lab3/Book1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/somto/Desktop/SMU/CSE 3353/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D134A3EE-5F61-7548-8C21-7E5C4FEC96A2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044C97BF-1371-D044-88B3-B3F373012357}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1260" windowWidth="28040" windowHeight="17440" xr2:uid="{E95EFB2B-C650-7B47-BC56-FA0DC7B3D46D}"/>
+    <workbookView xWindow="820" yWindow="1160" windowWidth="19320" windowHeight="17440" xr2:uid="{E95EFB2B-C650-7B47-BC56-FA0DC7B3D46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$C$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$4:$C$10</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$4:$D$10</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -199,25 +205,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>49204</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>75375346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,25 +265,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D33FCE-4AB9-1543-9DC9-751217BCF0DD}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B4" sqref="B4:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1416,10 +1416,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -1427,10 +1427,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -1438,10 +1438,10 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -1449,10 +1449,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>824</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
@@ -1460,32 +1460,21 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>49204</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>75375346</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
